--- a/Vacantes/Error/VacantesListaDeEspera.xlsx
+++ b/Vacantes/Error/VacantesListaDeEspera.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="R1c95db2b2a674b6a"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="Rbb986a929a10448e"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Vacantes/Error/VacantesListaDeEspera.xlsx
+++ b/Vacantes/Error/VacantesListaDeEspera.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="Rbb986a929a10448e"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="R84c632029c5a4e6a"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Vacantes/Error/VacantesListaDeEspera.xlsx
+++ b/Vacantes/Error/VacantesListaDeEspera.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="R84c632029c5a4e6a"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="R71e13c9129284008"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Vacantes/Error/VacantesListaDeEspera.xlsx
+++ b/Vacantes/Error/VacantesListaDeEspera.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="R71e13c9129284008"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="R82829e11c9504c92"/>
   </x:sheets>
 </x:workbook>
 </file>
